--- a/biology/Écologie/District_franc_fédéral_les_Bimis-Ciernes_Picat/District_franc_fédéral_les_Bimis-Ciernes_Picat.xlsx
+++ b/biology/Écologie/District_franc_fédéral_les_Bimis-Ciernes_Picat/District_franc_fédéral_les_Bimis-Ciernes_Picat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>District_franc_f%C3%A9d%C3%A9ral_les_Bimis-Ciernes_Picat</t>
+          <t>District_franc_fédéral_les_Bimis-Ciernes_Picat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le district franc fédéral les Bimis-Ciernes Picat est une zone de protection de la nature d'importance nationale, situé dans le canton de Vaud, en Suisse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>District_franc_f%C3%A9d%C3%A9ral_les_Bimis-Ciernes_Picat</t>
+          <t>District_franc_fédéral_les_Bimis-Ciernes_Picat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé sur le territoire des communes de Château-d'Œx et Rougemont (Vaud), le district franc fédéral les Bimis-Ciernes Picat est situé dans le massif des Préalpes fribourgeoises et touche le canton de Fribourg, avec une frontière commune avec le district franc fédéral de Hochmatt-Motélon au Vanil Noir, tous deux sont entièrement englobés dans le Parc naturel régional Gruyère Pays-d'Enhaut.
-Il est divisé en deux zones : une partie où la protection est intégrale et une autre où elle n'est que partielle[1]. Il tire son nom des deux lieux-dits des Ciernes-Picat et des Bimis qui sont tous deux inclus dans le territoire du district franc.
+Il est divisé en deux zones : une partie où la protection est intégrale et une autre où elle n'est que partielle. Il tire son nom des deux lieux-dits des Ciernes-Picat et des Bimis qui sont tous deux inclus dans le territoire du district franc.
 </t>
         </is>
       </c>
